--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H2">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I2">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J2">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N2">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O2">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P2">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q2">
-        <v>2279.392040516832</v>
+        <v>2699.418963719085</v>
       </c>
       <c r="R2">
-        <v>2279.392040516832</v>
+        <v>24294.77067347177</v>
       </c>
       <c r="S2">
-        <v>0.00494355772770317</v>
+        <v>0.003842023787946242</v>
       </c>
       <c r="T2">
-        <v>0.00494355772770317</v>
+        <v>0.003901003330042802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H3">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I3">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J3">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N3">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O3">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P3">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q3">
-        <v>25.39376969784215</v>
+        <v>26.4567571615781</v>
       </c>
       <c r="R3">
-        <v>25.39376969784215</v>
+        <v>238.110814454203</v>
       </c>
       <c r="S3">
-        <v>5.50741444182713E-05</v>
+        <v>3.765532202776587E-05</v>
       </c>
       <c r="T3">
-        <v>5.50741444182713E-05</v>
+        <v>3.823337509908309E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H4">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I4">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J4">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N4">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O4">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P4">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q4">
-        <v>397.1854828883609</v>
+        <v>484.1637496610791</v>
       </c>
       <c r="R4">
-        <v>397.1854828883609</v>
+        <v>4357.473746949712</v>
       </c>
       <c r="S4">
-        <v>0.0008614180133835435</v>
+        <v>0.0006890996427232234</v>
       </c>
       <c r="T4">
-        <v>0.0008614180133835435</v>
+        <v>0.000699678125218368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H5">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I5">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J5">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N5">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O5">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P5">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q5">
-        <v>456.9606652852568</v>
+        <v>469.1116176078265</v>
       </c>
       <c r="R5">
-        <v>456.9606652852568</v>
+        <v>4222.004558470438</v>
       </c>
       <c r="S5">
-        <v>0.0009910587507426329</v>
+        <v>0.0006676762734036904</v>
       </c>
       <c r="T5">
-        <v>0.0009910587507426329</v>
+        <v>0.0006779258822160131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H6">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I6">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J6">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N6">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O6">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P6">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q6">
-        <v>138.5792668319459</v>
+        <v>144.7489882568086</v>
       </c>
       <c r="R6">
-        <v>138.5792668319459</v>
+        <v>868.4939295408519</v>
       </c>
       <c r="S6">
-        <v>0.0003005514598933016</v>
+        <v>0.0002060180593077005</v>
       </c>
       <c r="T6">
-        <v>0.0003005514598933016</v>
+        <v>0.000139453784388271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H7">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J7">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N7">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O7">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P7">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q7">
-        <v>3457.741639993156</v>
+        <v>4394.810641579885</v>
       </c>
       <c r="R7">
-        <v>3457.741639993156</v>
+        <v>39553.29577421896</v>
       </c>
       <c r="S7">
-        <v>0.007499168682239227</v>
+        <v>0.006255037567494223</v>
       </c>
       <c r="T7">
-        <v>0.007499168682239227</v>
+        <v>0.006351059682892107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H8">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J8">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N8">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O8">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P8">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q8">
-        <v>38.52127818289484</v>
+        <v>43.07313517395077</v>
       </c>
       <c r="R8">
-        <v>38.52127818289484</v>
+        <v>387.658216565557</v>
       </c>
       <c r="S8">
-        <v>8.354515548754591E-05</v>
+        <v>6.130504830259627E-05</v>
       </c>
       <c r="T8">
-        <v>8.354515548754591E-05</v>
+        <v>6.224615223028106E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H9">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J9">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N9">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O9">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P9">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q9">
-        <v>602.5136345884914</v>
+        <v>788.2466663663699</v>
       </c>
       <c r="R9">
-        <v>602.5136345884914</v>
+        <v>7094.219997297329</v>
       </c>
       <c r="S9">
-        <v>0.00130673481409591</v>
+        <v>0.001121894186731391</v>
       </c>
       <c r="T9">
-        <v>0.00130673481409591</v>
+        <v>0.001139116569794663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H10">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J10">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N10">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O10">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P10">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q10">
-        <v>693.1900665220996</v>
+        <v>763.740922346938</v>
       </c>
       <c r="R10">
-        <v>693.1900665220996</v>
+        <v>6873.668301122441</v>
       </c>
       <c r="S10">
-        <v>0.001503394347795212</v>
+        <v>0.001087015698905158</v>
       </c>
       <c r="T10">
-        <v>0.001503394347795212</v>
+        <v>0.001103702656537836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H11">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J11">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N11">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O11">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P11">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q11">
-        <v>210.2189061149366</v>
+        <v>235.6597484491647</v>
       </c>
       <c r="R11">
-        <v>210.2189061149366</v>
+        <v>1413.958490694988</v>
       </c>
       <c r="S11">
-        <v>0.0004559238952146931</v>
+        <v>0.0003354093497793696</v>
       </c>
       <c r="T11">
-        <v>0.0004559238952146931</v>
+        <v>0.0002270388494247604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H12">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I12">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J12">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N12">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O12">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P12">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q12">
-        <v>181446.7792527453</v>
+        <v>254261.6801789658</v>
       </c>
       <c r="R12">
-        <v>181446.7792527453</v>
+        <v>2288355.121610692</v>
       </c>
       <c r="S12">
-        <v>0.3935227515922952</v>
+        <v>0.3618850710987392</v>
       </c>
       <c r="T12">
-        <v>0.3935227515922952</v>
+        <v>0.3674404286298268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H13">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I13">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J13">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N13">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O13">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P13">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q13">
-        <v>2021.42397747194</v>
+        <v>2491.995358409201</v>
       </c>
       <c r="R13">
-        <v>2021.42397747194</v>
+        <v>22427.95822568281</v>
       </c>
       <c r="S13">
-        <v>0.00438407520389957</v>
+        <v>0.003546802321218383</v>
       </c>
       <c r="T13">
-        <v>0.00438407520389957</v>
+        <v>0.003601249869791292</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H14">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I14">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J14">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N14">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O14">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P14">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q14">
-        <v>31617.21430759172</v>
+        <v>45603.99483189858</v>
       </c>
       <c r="R14">
-        <v>31617.21430759172</v>
+        <v>410435.9534870872</v>
       </c>
       <c r="S14">
-        <v>0.06857158458941631</v>
+        <v>0.06490716532869598</v>
       </c>
       <c r="T14">
-        <v>0.06857158458941631</v>
+        <v>0.06590356595012956</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H15">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I15">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J15">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N15">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O15">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P15">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q15">
-        <v>36375.50692789187</v>
+        <v>44186.21551065426</v>
       </c>
       <c r="R15">
-        <v>36375.50692789187</v>
+        <v>397675.9395958883</v>
       </c>
       <c r="S15">
-        <v>0.07889139523876132</v>
+        <v>0.0628892711257249</v>
       </c>
       <c r="T15">
-        <v>0.07889139523876132</v>
+        <v>0.06385469471977412</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H16">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I16">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J16">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N16">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O16">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P16">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q16">
-        <v>11031.34572329296</v>
+        <v>13634.08994788835</v>
       </c>
       <c r="R16">
-        <v>11031.34572329296</v>
+        <v>81804.53968733008</v>
       </c>
       <c r="S16">
-        <v>0.02392484198768418</v>
+        <v>0.01940510110168914</v>
       </c>
       <c r="T16">
-        <v>0.02392484198768418</v>
+        <v>0.0131353280103751</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H17">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I17">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J17">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N17">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O17">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P17">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q17">
-        <v>128440.0308017334</v>
+        <v>230866.1224309322</v>
       </c>
       <c r="R17">
-        <v>128440.0308017334</v>
+        <v>2077795.101878389</v>
       </c>
       <c r="S17">
-        <v>0.2785614302102997</v>
+        <v>0.3285866870359794</v>
       </c>
       <c r="T17">
-        <v>0.2785614302102997</v>
+        <v>0.3336308755704724</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H18">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I18">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J18">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N18">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O18">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P18">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q18">
-        <v>1430.897583297446</v>
+        <v>2262.697647191144</v>
       </c>
       <c r="R18">
-        <v>1430.897583297446</v>
+        <v>20364.2788247203</v>
       </c>
       <c r="S18">
-        <v>0.003103338381342234</v>
+        <v>0.003220447919451988</v>
       </c>
       <c r="T18">
-        <v>0.003103338381342234</v>
+        <v>0.003269885547670483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H19">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I19">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J19">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N19">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O19">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P19">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q19">
-        <v>22380.75537221553</v>
+        <v>41407.80257091871</v>
       </c>
       <c r="R19">
-        <v>22380.75537221553</v>
+        <v>372670.2231382685</v>
       </c>
       <c r="S19">
-        <v>0.04853950272944865</v>
+        <v>0.05893481694477973</v>
       </c>
       <c r="T19">
-        <v>0.04853950272944865</v>
+        <v>0.05983953505918937</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H20">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I20">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J20">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N20">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O20">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P20">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q20">
-        <v>25748.98959071168</v>
+        <v>40120.47836961538</v>
       </c>
       <c r="R20">
-        <v>25748.98959071168</v>
+        <v>361084.3053265383</v>
       </c>
       <c r="S20">
-        <v>0.05584454723411639</v>
+        <v>0.05710259665193857</v>
       </c>
       <c r="T20">
-        <v>0.05584454723411639</v>
+        <v>0.05797918804984249</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H21">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I21">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J21">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N21">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O21">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P21">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q21">
-        <v>7808.716089199364</v>
+        <v>12379.56689709599</v>
       </c>
       <c r="R21">
-        <v>7808.716089199364</v>
+        <v>74277.40138257593</v>
       </c>
       <c r="S21">
-        <v>0.01693558548947496</v>
+        <v>0.01761956596673899</v>
       </c>
       <c r="T21">
-        <v>0.01693558548947496</v>
+        <v>0.0119266978904538</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H22">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I22">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J22">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N22">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O22">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P22">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q22">
-        <v>3098.144545857717</v>
+        <v>3769.205840950923</v>
       </c>
       <c r="R22">
-        <v>3098.144545857717</v>
+        <v>22615.23504570554</v>
       </c>
       <c r="S22">
-        <v>0.006719272568725653</v>
+        <v>0.005364627980033102</v>
       </c>
       <c r="T22">
-        <v>0.006719272568725653</v>
+        <v>0.003631320847137302</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H23">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I23">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J23">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N23">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O23">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P23">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q23">
-        <v>34.51515478236823</v>
+        <v>36.94164002191466</v>
       </c>
       <c r="R23">
-        <v>34.51515478236823</v>
+        <v>221.649840131488</v>
       </c>
       <c r="S23">
-        <v>7.485665349105945E-05</v>
+        <v>5.257822577285305E-05</v>
       </c>
       <c r="T23">
-        <v>7.485665349105945E-05</v>
+        <v>3.559024187046702E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H24">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I24">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J24">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N24">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O24">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P24">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q24">
-        <v>539.8536169431499</v>
+        <v>676.0391246140587</v>
       </c>
       <c r="R24">
-        <v>539.8536169431499</v>
+        <v>4056.234747684352</v>
       </c>
       <c r="S24">
-        <v>0.001170837430520591</v>
+        <v>0.0009621916542999665</v>
       </c>
       <c r="T24">
-        <v>0.001170837430520591</v>
+        <v>0.0006513082782637681</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H25">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I25">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J25">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N25">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O25">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P25">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q25">
-        <v>621.0999107042717</v>
+        <v>655.0217928043573</v>
       </c>
       <c r="R25">
-        <v>621.0999107042717</v>
+        <v>3930.130756826144</v>
       </c>
       <c r="S25">
-        <v>0.001347044829787883</v>
+        <v>0.0009322781470388403</v>
       </c>
       <c r="T25">
-        <v>0.001347044829787883</v>
+        <v>0.0006310598019607292</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H26">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I26">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J26">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N26">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O26">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P26">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q26">
-        <v>188.3566284661613</v>
+        <v>202.113395268448</v>
       </c>
       <c r="R26">
-        <v>188.3566284661613</v>
+        <v>808.4535810737918</v>
       </c>
       <c r="S26">
-        <v>0.0004085088697628671</v>
+        <v>0.0002876635612776882</v>
       </c>
       <c r="T26">
-        <v>0.0004085088697628671</v>
+        <v>0.0001298131253981172</v>
       </c>
     </row>
   </sheetData>
